--- a/Energy Consumption10.xlsx
+++ b/Energy Consumption10.xlsx
@@ -450,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9.707933082752044</v>
+        <v>0.9387094898216251</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5790354600195798</v>
+        <v>3.328560344864989</v>
       </c>
     </row>
     <row r="3">
@@ -461,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.2255258418382</v>
+        <v>5.2515588033567</v>
       </c>
       <c r="C3" t="n">
-        <v>1.346095713472677</v>
+        <v>7.056207800609791</v>
       </c>
     </row>
     <row r="4">
@@ -472,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.84926875353762</v>
+        <v>8.08938014359477</v>
       </c>
       <c r="C4" t="n">
-        <v>1.914714784935688</v>
+        <v>11.09702766635007</v>
       </c>
     </row>
     <row r="5">
@@ -483,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.12890154456541</v>
+        <v>11.01824053167085</v>
       </c>
       <c r="C5" t="n">
-        <v>2.513992989021235</v>
+        <v>14.66429942387451</v>
       </c>
     </row>
     <row r="6">
@@ -494,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20.11274684448172</v>
+        <v>11.84569753089263</v>
       </c>
       <c r="C6" t="n">
-        <v>3.273191220611716</v>
+        <v>18.21271944511849</v>
       </c>
     </row>
     <row r="7">
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21.05448446362524</v>
+        <v>12.4495209675778</v>
       </c>
       <c r="C7" t="n">
-        <v>3.890145142942823</v>
+        <v>22.5434771930722</v>
       </c>
     </row>
     <row r="8">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22.57639588522183</v>
+        <v>13.44748075756891</v>
       </c>
       <c r="C8" t="n">
-        <v>4.497739949273835</v>
+        <v>26.39727248913607</v>
       </c>
     </row>
     <row r="9">
@@ -527,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>22.68465187923173</v>
+        <v>13.86066845125708</v>
       </c>
       <c r="C9" t="n">
-        <v>5.141181889337454</v>
+        <v>30.3717169388179</v>
       </c>
     </row>
     <row r="10">
@@ -538,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>25.34141702043017</v>
+        <v>15.48518792122808</v>
       </c>
       <c r="C10" t="n">
-        <v>5.708421248404084</v>
+        <v>33.8921025314127</v>
       </c>
     </row>
     <row r="11">
@@ -549,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>25.60999118705486</v>
+        <v>17.00679388538487</v>
       </c>
       <c r="C11" t="n">
-        <v>6.598103012931951</v>
+        <v>38.54659097739153</v>
       </c>
     </row>
     <row r="12">
@@ -560,10 +560,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29.75941918470491</v>
+        <v>20.95140541880616</v>
       </c>
       <c r="C12" t="n">
-        <v>7.023206480703842</v>
+        <v>42.24149132310051</v>
       </c>
     </row>
     <row r="13">
@@ -571,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29.94514676684001</v>
+        <v>22.31574568595443</v>
       </c>
       <c r="C13" t="n">
-        <v>7.935117839172663</v>
+        <v>46.41392157118887</v>
       </c>
     </row>
     <row r="14">
@@ -582,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>30.24817663828396</v>
+        <v>23.54100067858006</v>
       </c>
       <c r="C14" t="n">
-        <v>8.448888073895731</v>
+        <v>50.77952037337192</v>
       </c>
     </row>
     <row r="15">
@@ -593,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>32.95154443811177</v>
+        <v>24.32186709528463</v>
       </c>
       <c r="C15" t="n">
-        <v>9.031024065419162</v>
+        <v>54.48581403701866</v>
       </c>
     </row>
     <row r="16">
@@ -604,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>33.05086448623724</v>
+        <v>25.09131952196411</v>
       </c>
       <c r="C16" t="n">
-        <v>9.789267631044673</v>
+        <v>59.16731212120687</v>
       </c>
     </row>
     <row r="17">
@@ -615,10 +615,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>35.58535905408458</v>
+        <v>27.66190263377198</v>
       </c>
       <c r="C17" t="n">
-        <v>10.68623264478648</v>
+        <v>63.27851700235214</v>
       </c>
     </row>
     <row r="18">
@@ -626,10 +626,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>44.89090870802247</v>
+        <v>31.12760745988034</v>
       </c>
       <c r="C18" t="n">
-        <v>11.38534007281805</v>
+        <v>67.66162291526179</v>
       </c>
     </row>
     <row r="19">
@@ -637,10 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>50.87559110676496</v>
+        <v>33.58960117990278</v>
       </c>
       <c r="C19" t="n">
-        <v>12.00469332071829</v>
+        <v>71.48481870948902</v>
       </c>
     </row>
     <row r="20">
@@ -648,10 +648,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>58.25667320796426</v>
+        <v>34.73103193208441</v>
       </c>
       <c r="C20" t="n">
-        <v>12.64028859831339</v>
+        <v>74.69606751696463</v>
       </c>
     </row>
     <row r="21">
@@ -659,10 +659,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>59.92873860741446</v>
+        <v>35.43751394950645</v>
       </c>
       <c r="C21" t="n">
-        <v>13.25539588792145</v>
+        <v>78.63480631512766</v>
       </c>
     </row>
     <row r="22">
@@ -670,10 +670,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>60.02720810981074</v>
+        <v>37.64885554961281</v>
       </c>
       <c r="C22" t="n">
-        <v>13.92805625771695</v>
+        <v>82.7470089868835</v>
       </c>
     </row>
     <row r="23">
@@ -681,10 +681,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>63.22774521641635</v>
+        <v>40.30079442421929</v>
       </c>
       <c r="C23" t="n">
-        <v>14.71356031820645</v>
+        <v>86.17030902553435</v>
       </c>
     </row>
     <row r="24">
@@ -692,10 +692,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>65.20323025412286</v>
+        <v>43.65326595969503</v>
       </c>
       <c r="C24" t="n">
-        <v>15.33935511477641</v>
+        <v>89.91141423225264</v>
       </c>
     </row>
     <row r="25">
@@ -703,10 +703,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>65.48357462197818</v>
+        <v>45.17561633605147</v>
       </c>
       <c r="C25" t="n">
-        <v>16.2129286908677</v>
+        <v>93.26748394120146</v>
       </c>
     </row>
     <row r="26">
@@ -714,10 +714,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>66.40248760993336</v>
+        <v>46.15529294915</v>
       </c>
       <c r="C26" t="n">
-        <v>17.05972557776006</v>
+        <v>97.44676669850919</v>
       </c>
     </row>
     <row r="27">
@@ -725,10 +725,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>66.4753482258532</v>
+        <v>49.91124275966857</v>
       </c>
       <c r="C27" t="n">
-        <v>17.74252877981165</v>
+        <v>101.007297108561</v>
       </c>
     </row>
     <row r="28">
@@ -736,10 +736,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>66.69998598908549</v>
+        <v>50.8176547077912</v>
       </c>
       <c r="C28" t="n">
-        <v>18.61392859163163</v>
+        <v>104.950283133165</v>
       </c>
     </row>
     <row r="29">
@@ -747,10 +747,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>66.73437974250383</v>
+        <v>54.45741191668857</v>
       </c>
       <c r="C29" t="n">
-        <v>19.23219551102316</v>
+        <v>108.941864293514</v>
       </c>
     </row>
     <row r="30">
@@ -758,10 +758,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>69.47814030209716</v>
+        <v>57.74499925511346</v>
       </c>
       <c r="C30" t="n">
-        <v>19.90340860117735</v>
+        <v>113.4201246055219</v>
       </c>
     </row>
     <row r="31">
@@ -769,10 +769,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>70.39592245773495</v>
+        <v>60.34465169762083</v>
       </c>
       <c r="C31" t="n">
-        <v>20.49303449386233</v>
+        <v>116.8800621538798</v>
       </c>
     </row>
     <row r="32">
@@ -780,10 +780,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>73.70371561319571</v>
+        <v>62.42278563121971</v>
       </c>
       <c r="C32" t="n">
-        <v>21.08416626494822</v>
+        <v>120.4466170477735</v>
       </c>
     </row>
     <row r="33">
@@ -791,10 +791,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>82.0827304294054</v>
+        <v>65.89985580528027</v>
       </c>
       <c r="C33" t="n">
-        <v>21.85265906733198</v>
+        <v>124.6255167423677</v>
       </c>
     </row>
     <row r="34">
@@ -802,10 +802,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>82.1345562332166</v>
+        <v>68.52561317154451</v>
       </c>
       <c r="C34" t="n">
-        <v>22.3404204010474</v>
+        <v>128.1621175945332</v>
       </c>
     </row>
     <row r="35">
@@ -813,10 +813,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>82.76970930820644</v>
+        <v>71.91799646663537</v>
       </c>
       <c r="C35" t="n">
-        <v>23.30658270016089</v>
+        <v>132.5037106101475</v>
       </c>
     </row>
     <row r="36">
@@ -824,10 +824,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>83.98628779360379</v>
+        <v>73.54985489992116</v>
       </c>
       <c r="C36" t="n">
-        <v>23.89424960584272</v>
+        <v>136.1489835323165</v>
       </c>
     </row>
     <row r="37">
@@ -835,10 +835,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>88.158284054251</v>
+        <v>75.38510684341099</v>
       </c>
       <c r="C37" t="n">
-        <v>24.50250749947888</v>
+        <v>139.7582609773989</v>
       </c>
     </row>
     <row r="38">
@@ -846,10 +846,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>88.75138175645723</v>
+        <v>76.47177816999306</v>
       </c>
       <c r="C38" t="n">
-        <v>25.19470076280928</v>
+        <v>143.463844443511</v>
       </c>
     </row>
     <row r="39">
@@ -857,10 +857,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>88.85361238777165</v>
+        <v>77.89163740354344</v>
       </c>
       <c r="C39" t="n">
-        <v>25.90440340424171</v>
+        <v>147.6389608462566</v>
       </c>
     </row>
     <row r="40">
@@ -868,10 +868,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>89.36715167440202</v>
+        <v>79.5575859197231</v>
       </c>
       <c r="C40" t="n">
-        <v>26.97026134496484</v>
+        <v>151.3519356546663</v>
       </c>
     </row>
     <row r="41">
@@ -879,10 +879,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>89.47439739742364</v>
+        <v>80.72807075401498</v>
       </c>
       <c r="C41" t="n">
-        <v>27.63466861314889</v>
+        <v>155.0888919349869</v>
       </c>
     </row>
     <row r="42">
@@ -890,10 +890,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>89.61362303949429</v>
+        <v>84.88520353972142</v>
       </c>
       <c r="C42" t="n">
-        <v>28.19244914916833</v>
+        <v>158.7408706707931</v>
       </c>
     </row>
     <row r="43">
@@ -901,10 +901,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>89.73673389788368</v>
+        <v>86.47166134549553</v>
       </c>
       <c r="C43" t="n">
-        <v>28.8844038430104</v>
+        <v>162.7205820157197</v>
       </c>
     </row>
     <row r="44">
@@ -912,10 +912,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>93.21592244829381</v>
+        <v>89.55887749909935</v>
       </c>
       <c r="C44" t="n">
-        <v>30.85957775129684</v>
+        <v>166.624619044602</v>
       </c>
     </row>
     <row r="45">
@@ -923,10 +923,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>93.26916504178176</v>
+        <v>90.70465295740958</v>
       </c>
       <c r="C45" t="n">
-        <v>31.59434205565712</v>
+        <v>170.6787376340409</v>
       </c>
     </row>
     <row r="46">
@@ -934,10 +934,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>93.74037374489572</v>
+        <v>91.8868454220048</v>
       </c>
       <c r="C46" t="n">
-        <v>32.22392562099792</v>
+        <v>174.6691552592767</v>
       </c>
     </row>
     <row r="47">
@@ -945,10 +945,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>95.54474786015136</v>
+        <v>92.87421046636133</v>
       </c>
       <c r="C47" t="n">
-        <v>32.83265069699509</v>
+        <v>178.8781241072097</v>
       </c>
     </row>
     <row r="48">
@@ -956,10 +956,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>95.6967488901895</v>
+        <v>95.17754628350531</v>
       </c>
       <c r="C48" t="n">
-        <v>33.66344780546098</v>
+        <v>182.493260175401</v>
       </c>
     </row>
     <row r="49">
@@ -967,10 +967,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>97.39030646622969</v>
+        <v>97.46564754463925</v>
       </c>
       <c r="C49" t="n">
-        <v>34.2880738680505</v>
+        <v>185.9804306053093</v>
       </c>
     </row>
     <row r="50">
@@ -978,10 +978,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>98.68074787804329</v>
+        <v>99.91132497789691</v>
       </c>
       <c r="C50" t="n">
-        <v>35.01926116817926</v>
+        <v>189.5984521261951</v>
       </c>
     </row>
   </sheetData>
